--- a/results/[7_low_gas_demand]_#_inv_capacity.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_capacity.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03146001818844726</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1806324374358236</v>
+        <v>0.3806676774358236</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361374995</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4832981978631863</v>
+        <v>0.3505002166666667</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2363050021368137</v>
+        <v>0.6250375</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0441938</v>
+        <v>0.07807858333333334</v>
       </c>
       <c r="N2" t="n">
-        <v>4.610281803903263</v>
+        <v>12.59325462450016</v>
       </c>
       <c r="O2" t="n">
-        <v>3.117701748756791</v>
+        <v>3.116032793548749</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1864934782984316</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04468706386250129</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4056951399999998</v>
+        <v>0.2352331883523505</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3087415021368139</v>
+        <v>0.2500038147053857</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01403128119652</v>
+        <v>0.2772243519612813</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1420581166666667</v>
+        <v>0.04511633333333334</v>
       </c>
       <c r="N2" t="n">
-        <v>9.447993690848511</v>
+        <v>5.345427060255322</v>
       </c>
       <c r="O2" t="n">
-        <v>4.806547321886399</v>
+        <v>2.482704542036897</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1733642404314606</v>
+        <v>0.06687192943954244</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.03189452449816901</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8285088317334168</v>
+        <v>0.1897417762144118</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.392987959416859</v>
+        <v>0.4857584928572489</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007762464716026</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3557155148124346</v>
+        <v>0.04542566666666664</v>
       </c>
       <c r="N2" t="n">
-        <v>21.14662564492952</v>
+        <v>8.365157032394315</v>
       </c>
       <c r="O2" t="n">
-        <v>17.33655788487133</v>
+        <v>5.022989240847572</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_capacity.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_capacity.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3806676774358236</v>
+        <v>0.380801491414829</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374995</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3505002166666667</v>
+        <v>0.3490586900963446</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6250375</v>
+        <v>0.620926</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07807858333333334</v>
+        <v>0.07877716666666652</v>
       </c>
       <c r="N2" t="n">
-        <v>12.59325462450016</v>
+        <v>12.58268103604887</v>
       </c>
       <c r="O2" t="n">
-        <v>3.116032793548749</v>
+        <v>3.039902505957998</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04468706386250129</v>
+        <v>0.06049637743582365</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2352331883523505</v>
+        <v>0.3791936161318825</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2500038147053857</v>
+        <v>0.3842421432369887</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2772243519612813</v>
+        <v>0.4679873757707057</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04511633333333334</v>
+        <v>0.07840229161376959</v>
       </c>
       <c r="N2" t="n">
-        <v>5.345427060255322</v>
+        <v>9.430249752715472</v>
       </c>
       <c r="O2" t="n">
-        <v>2.482704542036897</v>
+        <v>4.051469887508581</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06687192943954244</v>
+        <v>0.06937835746130364</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03189452449816901</v>
+        <v>0.02700184948922742</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1897417762144118</v>
+        <v>0.1902207139172843</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4857584928572489</v>
+        <v>0.4643640683185117</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04542566666666664</v>
+        <v>0.03858787505289721</v>
       </c>
       <c r="N2" t="n">
-        <v>8.365157032394315</v>
+        <v>9.002099109637758</v>
       </c>
       <c r="O2" t="n">
-        <v>5.022989240847572</v>
+        <v>5.364149887256674</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_capacity.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03146001818844726</v>
+        <v>0.2203400156654242</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.7046311191134504</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1806324374358236</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2760351889143736</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4832981978631863</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2363050021368137</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0441938</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.610281803903263</v>
+        <v>6.837810092546732</v>
       </c>
       <c r="O2" t="n">
-        <v>3.117701748756791</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1864934782984316</v>
+        <v>0.283238512102376</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.176539765018775</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4056951399999998</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.239765908863724</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3087415021368139</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01403128119652</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1420581166666667</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.447993690848511</v>
+        <v>24.47917038280388</v>
       </c>
       <c r="O2" t="n">
-        <v>4.806547321886399</v>
+        <v>6.646311143090873</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1733642404314606</v>
+        <v>1.026369775876245</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.433002254199083</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8285088317334168</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.04927038289623842</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222227</v>
       </c>
       <c r="I2" t="n">
-        <v>1.392987959416859</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007762464716026</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3557155148124346</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.14662564492952</v>
+        <v>26.66214052759042</v>
       </c>
       <c r="O2" t="n">
-        <v>17.33655788487133</v>
+        <v>7.285821150245395</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[7_low_gas_demand]_#_inv_capacity.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_capacity.xlsx
@@ -559,7 +559,7 @@
         <v>6.837810092546732</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996624</v>
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +702,7 @@
         <v>24.47917038280388</v>
       </c>
       <c r="O2" t="n">
-        <v>6.646311143090873</v>
+        <v>6.646311143090884</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222227</v>
+        <v>0.1261817221222146</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>26.66214052759042</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150245395</v>
+        <v>7.285821150245754</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_capacity.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_capacity.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.380801491414829</v>
+        <v>0.3808014914148273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361375286</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3490586900963446</v>
+        <v>0.3490586900963453</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0.620926</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07877716666666652</v>
+        <v>0.07877716666666654</v>
       </c>
       <c r="N2" t="n">
-        <v>12.58268103604887</v>
+        <v>12.5826810360485</v>
       </c>
       <c r="O2" t="n">
-        <v>3.039902505957998</v>
+        <v>3.039902505958021</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3791936161318825</v>
+        <v>0.379193616131885</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3842421432369887</v>
+        <v>0.384242143236988</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0.4679873757707057</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07840229161376959</v>
+        <v>0.07840229161376477</v>
       </c>
       <c r="N2" t="n">
-        <v>9.430249752715472</v>
+        <v>9.430249752715634</v>
       </c>
       <c r="O2" t="n">
-        <v>4.051469887508581</v>
+        <v>4.051469887508649</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06937835746130364</v>
+        <v>0.06937835746130244</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02700184948922742</v>
+        <v>0.02700184948922077</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1902207139172843</v>
+        <v>0.190220713917284</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4643640683185117</v>
+        <v>0.4643640683185115</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03858787505289721</v>
+        <v>0.03858787505290201</v>
       </c>
       <c r="N2" t="n">
-        <v>9.002099109637758</v>
+        <v>9.002099109637967</v>
       </c>
       <c r="O2" t="n">
-        <v>5.364149887256674</v>
+        <v>5.364149887256593</v>
       </c>
     </row>
   </sheetData>
